--- a/MiroBello/Documents/List-of-Tasks.xlsx
+++ b/MiroBello/Documents/List-of-Tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>Functionalitate</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Creare tabel in baza de date pentru comenzi</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,7 +617,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -684,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -936,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
@@ -957,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>70</v>
@@ -978,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
@@ -999,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
@@ -1062,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
@@ -1104,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>70</v>
@@ -1125,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>70</v>
@@ -1146,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>70</v>
@@ -1167,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>70</v>
@@ -1188,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
@@ -1230,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>70</v>
